--- a/gopro_solo_settings_final.xlsx
+++ b/gopro_solo_settings_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3227a08cc25b9e72/Dokumente/GoProcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d025370\OneDrive\Dokumente\GoProcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64D6271-7FA0-4E7E-B3A1-C2C0A09E1887}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{427B3969-9E8D-48F1-8F28-1DC37DA0516C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="1" xr2:uid="{06F9C8CB-1244-4026-9A45-7EA3381D78B6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="74">
   <si>
     <t>Resolution</t>
   </si>
@@ -428,6 +428,11 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,11 +445,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,94 +767,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B5EA5C-C7EA-4BFA-B2B9-7691365085A3}">
   <dimension ref="A1:W194"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="12" customWidth="1"/>
-    <col min="19" max="23" width="9.1328125" style="1"/>
+    <col min="19" max="23" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-    </row>
-    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+    </row>
+    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="S3" s="37" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="S3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -951,7 +951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8">
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8">
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="9">
         <v>2.7</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8">
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8">
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8">
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="9" t="s">
         <v>16</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="8">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="9">
         <v>2.7</v>
@@ -1873,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
@@ -1908,7 +1908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -1943,7 +1943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
@@ -2013,7 +2013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
@@ -2048,7 +2048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8">
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8">
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
@@ -2174,7 +2174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8"/>
@@ -2191,7 +2191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8"/>
@@ -2208,7 +2208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9">
         <v>2.7</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="8">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="8">
@@ -2396,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="8">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="C38" s="8">
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="9" t="s">
         <v>18</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
       <c r="C40" s="8">
@@ -2584,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="C41" s="8">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8">
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8">
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8">
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8">
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="9" t="s">
         <v>19</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8">
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8">
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8">
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8">
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8">
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="9"/>
       <c r="C57" s="8">
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8">
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="9" t="s">
         <v>20</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8">
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="9" t="s">
         <v>21</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8">
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8">
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8">
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8">
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8">
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8">
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8">
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8">
@@ -4420,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="9"/>
       <c r="C78" s="8">
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="9"/>
       <c r="C79" s="8">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="9"/>
       <c r="C80" s="8">
@@ -4604,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8">
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="9" t="s">
         <v>20</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8">
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8">
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8">
@@ -4912,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="9"/>
       <c r="C87" s="8">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8">
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8">
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
@@ -5161,7 +5161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
@@ -5178,7 +5178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
@@ -5213,7 +5213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
@@ -5248,7 +5248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="9"/>
       <c r="C95" s="8"/>
@@ -5283,7 +5283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="9"/>
       <c r="C96" s="8"/>
@@ -5318,7 +5318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="9"/>
       <c r="C97" s="8"/>
@@ -5353,7 +5353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="9"/>
       <c r="C98" s="8"/>
@@ -5388,7 +5388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="9" t="s">
         <v>22</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="9"/>
       <c r="C100" s="8">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="9"/>
       <c r="C101" s="8">
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="9"/>
       <c r="C102" s="8">
@@ -5588,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="9" t="s">
         <v>23</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="9"/>
       <c r="C104" s="8">
@@ -5684,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="9"/>
       <c r="C105" s="8">
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="9"/>
       <c r="C106" s="8">
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="9"/>
       <c r="C107" s="8">
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="9"/>
       <c r="C108" s="8">
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="9"/>
       <c r="C109" s="8">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="9"/>
       <c r="C110" s="8">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="9"/>
       <c r="C111" s="8">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="9"/>
       <c r="C112" s="8">
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="9"/>
       <c r="C113" s="8">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="9"/>
       <c r="C114" s="8">
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="9"/>
       <c r="C115" s="8">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="9"/>
       <c r="C116" s="8">
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="9"/>
       <c r="C117" s="8">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="9"/>
       <c r="C118" s="8">
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="9"/>
       <c r="C119" s="8">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="9"/>
       <c r="C120" s="8">
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="9"/>
       <c r="C121" s="8">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="9"/>
       <c r="C122" s="8">
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="9" t="s">
         <v>24</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="9"/>
       <c r="C124" s="8">
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="9"/>
       <c r="C125" s="8">
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="9"/>
       <c r="C126" s="8">
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="9" t="s">
         <v>25</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="9"/>
       <c r="C128" s="8">
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="9"/>
       <c r="C129" s="8"/>
@@ -6827,7 +6827,7 @@
       <c r="H129" s="30"/>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>54</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B131" s="14"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="9"/>
       <c r="C132" s="8"/>
@@ -6931,7 +6931,7 @@
       <c r="H132" s="30"/>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>35</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B134" s="14"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="9"/>
       <c r="C135" s="8"/>
@@ -7035,7 +7035,7 @@
       <c r="H135" s="30"/>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>36</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B137" s="14"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B138" s="14"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B139" s="14"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B140" s="14"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B141" s="14"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B142" s="14"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B143" s="14"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B144" s="14"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="9"/>
       <c r="C145" s="8"/>
@@ -7426,7 +7426,7 @@
       <c r="H145" s="30"/>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="9"/>
       <c r="C146" s="8"/>
@@ -7437,7 +7437,7 @@
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="9"/>
       <c r="C147" s="8"/>
@@ -7448,7 +7448,7 @@
       <c r="H147" s="30"/>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>28</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
     </row>
-    <row r="149" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>48</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -7555,7 +7555,7 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="9" t="s">
         <v>29</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="9" t="s">
         <v>30</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="9" t="s">
         <v>30</v>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="9" t="s">
         <v>31</v>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="9"/>
       <c r="C155" s="8"/>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="9"/>
       <c r="C156" s="8"/>
@@ -7761,7 +7761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="9"/>
       <c r="C157" s="8"/>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -7786,7 +7786,7 @@
       <c r="H158" s="30"/>
       <c r="I158" s="30"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -7796,7 +7796,7 @@
       <c r="H159" s="30"/>
       <c r="I159" s="30"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>54</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B161" s="14"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -7851,7 +7851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="9"/>
       <c r="C162" s="8"/>
@@ -7862,7 +7862,7 @@
       <c r="H162" s="30"/>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>50</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B164" s="14"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -7894,7 +7894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="9"/>
       <c r="C165" s="8"/>
@@ -7908,7 +7908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="9"/>
       <c r="C166" s="8"/>
@@ -7919,7 +7919,7 @@
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>36</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B168" s="14"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -7974,7 +7974,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B169" s="14"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -7996,7 +7996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B170" s="14"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -8018,7 +8018,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B171" s="14"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B172" s="14"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -8062,7 +8062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B173" s="14"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B174" s="14"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -8106,7 +8106,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B175" s="14"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -8128,7 +8128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="9"/>
       <c r="C176" s="8"/>
@@ -8139,7 +8139,7 @@
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>49</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>37</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="9"/>
       <c r="C179" s="8"/>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="9"/>
       <c r="C180" s="8"/>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="9"/>
       <c r="C181" s="8"/>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="9"/>
       <c r="C182" s="8"/>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="9"/>
       <c r="C183" s="8"/>
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="9"/>
       <c r="C184" s="8"/>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="9"/>
       <c r="C185" s="8"/>
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="9"/>
       <c r="C186" s="8"/>
@@ -8565,32 +8565,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="15"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="15"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="15"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="15"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B191" s="15"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B192" s="15"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="15"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="15"/>
     </row>
   </sheetData>
@@ -8609,75 +8609,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01AD22A-93D2-4FF6-BEDA-EEDA6890041B}">
-  <dimension ref="A1:W159"/>
+  <dimension ref="A1:W158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q126" sqref="Q126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="12" customWidth="1"/>
-    <col min="19" max="23" width="9.1328125" style="1"/>
+    <col min="19" max="23" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-    </row>
-    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B3" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+    </row>
+    <row r="3" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="41" t="s">
         <v>6</v>
       </c>
@@ -8690,15 +8690,15 @@
       <c r="O3" s="42"/>
       <c r="P3" s="42"/>
       <c r="Q3" s="42"/>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-    </row>
-    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+    </row>
+    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -8861,7 +8861,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="J9" s="25"/>
       <c r="K9" s="26">
@@ -8949,7 +8949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="C10" s="1">
         <v>30</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" s="1">
         <v>25</v>
@@ -9061,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="1">
         <v>24</v>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" s="1">
         <v>24</v>
@@ -9173,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="J14" s="25"/>
       <c r="K14" s="26">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="J15" s="25"/>
       <c r="K15" s="26">
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="1">
         <v>24</v>
@@ -9367,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="1">
         <v>2.7</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="J19" s="25"/>
       <c r="K19" s="26">
@@ -9453,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="C20" s="1">
         <v>60</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="C21" s="1">
         <v>50</v>
@@ -9565,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="C22" s="1">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="C23" s="1">
         <v>25</v>
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="C24" s="1">
         <v>24</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="C25" s="1">
         <v>24</v>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="J26" s="25"/>
       <c r="K26" s="26">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="J27" s="25"/>
       <c r="K27" s="26">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="C29" s="1">
         <v>25</v>
@@ -9983,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="J30" s="25"/>
       <c r="K30" s="26">
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="J31" s="25"/>
       <c r="K31" s="26">
@@ -10059,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="1">
         <v>2.7</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="G33" s="1">
         <v>50</v>
@@ -10159,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="G34" s="1">
         <v>30</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="G35" s="1">
         <v>25</v>
@@ -10253,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="G36" s="1">
         <v>24</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="G37" s="1">
         <v>24</v>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>18</v>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="J39" s="25"/>
       <c r="K39" s="26"/>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="C40" s="1">
         <v>60</v>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="C41" s="1">
         <v>50</v>
@@ -10533,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="C42" s="1">
         <v>30</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="C43" s="1">
         <v>25</v>
@@ -10645,7 +10645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="C44" s="1">
         <v>24</v>
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="C45" s="1">
         <v>24</v>
@@ -10757,7 +10757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="J46" s="25"/>
       <c r="K46" s="26">
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="J47" s="25"/>
       <c r="K47" s="26">
@@ -10833,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="J48" s="25"/>
       <c r="K48" s="26">
@@ -10871,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="J49" s="25"/>
       <c r="K49" s="26">
@@ -10909,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="J50" s="25"/>
       <c r="K50" s="26">
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="J51" s="25"/>
       <c r="K51" s="26">
@@ -10985,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>19</v>
@@ -11033,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="J53" s="25"/>
       <c r="K53" s="26">
@@ -11071,7 +11071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="C54" s="1">
         <v>120</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="C55" s="1">
         <v>120</v>
@@ -11183,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="C56" s="1">
         <v>60</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="C57" s="1">
         <v>50</v>
@@ -11295,7 +11295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="C58" s="1">
         <v>30</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="C59" s="1">
         <v>25</v>
@@ -11407,7 +11407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="C60" s="1">
         <v>24</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="C61" s="1">
         <v>24</v>
@@ -11519,7 +11519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="J62" s="25"/>
       <c r="K62" s="26">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="J63" s="25"/>
       <c r="K63" s="26">
@@ -11595,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="C64" s="1">
         <v>60</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="C65" s="1">
         <v>50</v>
@@ -11707,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="C66" s="1">
         <v>30</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="C67" s="1">
         <v>25</v>
@@ -11819,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="C68" s="1">
         <v>24</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="C69" s="1">
         <v>24</v>
@@ -11931,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="J70" s="25"/>
       <c r="K70" s="26">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="J71" s="25"/>
       <c r="K71" s="26">
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="G72" s="1">
         <v>60</v>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="G73" s="1">
         <v>50</v>
@@ -12101,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="G74" s="1">
         <v>30</v>
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="G75" s="1">
         <v>25</v>
@@ -12195,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="G76" s="1">
         <v>24</v>
@@ -12242,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="G77" s="1">
         <v>24</v>
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="1" t="s">
         <v>22</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="J79" s="25"/>
       <c r="K79" s="26"/>
@@ -12363,7 +12363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="C80" s="1">
         <v>120</v>
@@ -12413,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="C81" s="1">
         <v>120</v>
@@ -12463,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="1" t="s">
         <v>23</v>
@@ -12505,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="J83" s="25"/>
       <c r="K83" s="26"/>
@@ -12537,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="C84" s="1">
         <v>60</v>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="C85" s="1">
         <v>50</v>
@@ -12649,7 +12649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="J86" s="25"/>
       <c r="K86" s="26">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="J87" s="25"/>
       <c r="K87" s="26">
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="J88" s="25"/>
       <c r="K88" s="26"/>
@@ -12741,7 +12741,7 @@
       <c r="V88" s="17"/>
       <c r="W88" s="17"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>54</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="E90" s="1" t="s">
         <v>33</v>
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="J91" s="25"/>
       <c r="K91" s="26"/>
@@ -12837,7 +12837,7 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>35</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="E93" s="1" t="s">
         <v>33</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="J94" s="25"/>
       <c r="K94" s="26"/>
@@ -12933,7 +12933,7 @@
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>56</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F96" s="7"/>
       <c r="I96" s="1" t="s">
         <v>33</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F97" s="7"/>
       <c r="J97" s="28"/>
       <c r="K97" s="26"/>
@@ -13019,7 +13019,7 @@
       <c r="P97" s="17"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>51</v>
       </c>
@@ -13037,10 +13037,10 @@
         <v>32</v>
       </c>
       <c r="S98" s="17">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="T98" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U98" s="17">
         <v>0</v>
@@ -13052,23 +13052,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="F99" s="7"/>
       <c r="J99" s="28"/>
       <c r="K99" s="26"/>
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
-      <c r="N99" s="21"/>
+      <c r="N99" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
-      <c r="Q99" s="17" t="s">
-        <v>33</v>
+      <c r="Q99" s="17">
+        <v>2</v>
       </c>
       <c r="S99" s="17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T99" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99" s="17">
         <v>0</v>
@@ -13080,25 +13082,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F100" s="7"/>
       <c r="J100" s="28"/>
       <c r="K100" s="26"/>
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
-      <c r="N100" s="21" t="s">
-        <v>52</v>
-      </c>
+      <c r="N100" s="21"/>
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
       <c r="Q100" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S100" s="17">
         <v>20</v>
       </c>
       <c r="T100" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U100" s="17">
         <v>0</v>
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F101" s="7"/>
       <c r="J101" s="28"/>
       <c r="K101" s="26"/>
@@ -13120,13 +13120,13 @@
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
       <c r="Q101" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S101" s="17">
         <v>20</v>
       </c>
       <c r="T101" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U101" s="17">
         <v>0</v>
@@ -13138,23 +13138,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="F102" s="7"/>
-      <c r="J102" s="28"/>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="J102" s="25"/>
       <c r="K102" s="26"/>
       <c r="L102" s="26"/>
       <c r="M102" s="26"/>
-      <c r="N102" s="21"/>
+      <c r="N102" s="18"/>
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
       <c r="Q102" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S102" s="17">
         <v>20</v>
       </c>
       <c r="T102" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U102" s="17">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="J103" s="25"/>
       <c r="K103" s="26"/>
@@ -13176,13 +13176,13 @@
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
       <c r="Q103" s="17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S103" s="17">
         <v>20</v>
       </c>
       <c r="T103" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U103" s="17">
         <v>0</v>
@@ -13194,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="J104" s="25"/>
       <c r="K104" s="26"/>
@@ -13203,73 +13203,82 @@
       <c r="N104" s="18"/>
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
-      <c r="Q104" s="17">
-        <v>30</v>
-      </c>
-      <c r="S104" s="17">
-        <v>20</v>
-      </c>
-      <c r="T104" s="17">
-        <v>5</v>
-      </c>
-      <c r="U104" s="17">
-        <v>0</v>
-      </c>
-      <c r="V104" s="17">
-        <v>0</v>
-      </c>
-      <c r="W104" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A105" s="7"/>
-      <c r="J105" s="25"/>
+      <c r="Q104" s="17"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J105" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="K105" s="26"/>
       <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
-      <c r="N105" s="18"/>
+      <c r="M105" s="26">
+        <v>-2</v>
+      </c>
+      <c r="N105" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A106" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q105" s="17">
+        <v>-2</v>
+      </c>
+      <c r="S105" s="17">
+        <v>14</v>
+      </c>
+      <c r="T105" s="17">
+        <v>6</v>
+      </c>
+      <c r="U105" s="17">
+        <v>0</v>
+      </c>
+      <c r="V105" s="17">
+        <v>0</v>
+      </c>
+      <c r="W105" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
       <c r="E106" s="1">
-        <v>-2</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>-1.5</v>
+      </c>
+      <c r="F106" s="7"/>
       <c r="I106" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J106" s="27" t="s">
-        <v>36</v>
-      </c>
+        <v>-1.5</v>
+      </c>
+      <c r="J106" s="28"/>
       <c r="K106" s="26"/>
       <c r="L106" s="26"/>
       <c r="M106" s="26">
-        <v>-2</v>
-      </c>
-      <c r="N106" s="21" t="s">
-        <v>36</v>
-      </c>
+        <v>-1.5</v>
+      </c>
+      <c r="N106" s="21"/>
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
       <c r="Q106" s="17">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="S106" s="17">
         <v>14</v>
       </c>
       <c r="T106" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U106" s="17">
         <v>0</v>
@@ -13281,32 +13290,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="E107" s="1">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="F107" s="7"/>
       <c r="I107" s="1">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="J107" s="28"/>
       <c r="K107" s="26"/>
       <c r="L107" s="26"/>
       <c r="M107" s="26">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="N107" s="21"/>
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
       <c r="Q107" s="17">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S107" s="17">
         <v>14</v>
       </c>
       <c r="T107" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U107" s="17">
         <v>0</v>
@@ -13318,32 +13327,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="E108" s="1">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="F108" s="7"/>
       <c r="I108" s="1">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
       <c r="M108" s="26">
-        <v>-1</v>
-      </c>
-      <c r="N108" s="21"/>
+        <v>-0.5</v>
+      </c>
+      <c r="N108" s="20"/>
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
       <c r="Q108" s="17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S108" s="17">
         <v>14</v>
       </c>
       <c r="T108" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U108" s="17">
         <v>0</v>
@@ -13355,32 +13364,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="E109" s="1">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F109" s="7"/>
       <c r="I109" s="1">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J109" s="28"/>
       <c r="K109" s="26"/>
       <c r="L109" s="26"/>
       <c r="M109" s="26">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N109" s="20"/>
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
       <c r="Q109" s="17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S109" s="17">
         <v>14</v>
       </c>
       <c r="T109" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U109" s="17">
         <v>0</v>
@@ -13392,32 +13401,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F110" s="7"/>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J110" s="28"/>
       <c r="K110" s="26"/>
       <c r="L110" s="26"/>
       <c r="M110" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N110" s="20"/>
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
       <c r="Q110" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S110" s="17">
         <v>14</v>
       </c>
       <c r="T110" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U110" s="17">
         <v>0</v>
@@ -13429,32 +13438,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="E111" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F111" s="7"/>
       <c r="I111" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J111" s="28"/>
       <c r="K111" s="26"/>
       <c r="L111" s="26"/>
       <c r="M111" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N111" s="20"/>
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
       <c r="Q111" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S111" s="17">
         <v>14</v>
       </c>
       <c r="T111" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U111" s="17">
         <v>0</v>
@@ -13466,32 +13475,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="E112" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F112" s="7"/>
       <c r="I112" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J112" s="28"/>
       <c r="K112" s="26"/>
       <c r="L112" s="26"/>
       <c r="M112" s="26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N112" s="20"/>
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
       <c r="Q112" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S112" s="17">
         <v>14</v>
       </c>
       <c r="T112" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U112" s="17">
         <v>0</v>
@@ -13503,32 +13512,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
       <c r="E113" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F113" s="7"/>
       <c r="I113" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J113" s="28"/>
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
       <c r="M113" s="26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N113" s="20"/>
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S113" s="17">
         <v>14</v>
       </c>
       <c r="T113" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U113" s="17">
         <v>0</v>
@@ -13540,99 +13549,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B114" s="7"/>
-      <c r="E114" s="1">
-        <v>2</v>
-      </c>
-      <c r="F114" s="7"/>
-      <c r="I114" s="1">
-        <v>2</v>
-      </c>
-      <c r="J114" s="28"/>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+      <c r="J114" s="25"/>
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
-      <c r="M114" s="26">
-        <v>2</v>
-      </c>
-      <c r="N114" s="20"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="18"/>
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
-      <c r="Q114" s="17">
+      <c r="Q114" s="17"/>
+    </row>
+    <row r="115" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S114" s="17">
-        <v>14</v>
-      </c>
-      <c r="T114" s="17">
-        <v>14</v>
-      </c>
-      <c r="U114" s="17">
-        <v>0</v>
-      </c>
-      <c r="V114" s="17">
-        <v>0</v>
-      </c>
-      <c r="W114" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A115" s="7"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" s="4"/>
       <c r="J115" s="25"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="26"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
-    </row>
-    <row r="116" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="K115" s="25"/>
+      <c r="L115" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" s="25"/>
+      <c r="N115" s="18" t="s">
         <v>34</v>
       </c>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+    </row>
+    <row r="116" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="25"/>
+      <c r="J116" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="K116" s="25"/>
-      <c r="L116" s="25" t="s">
-        <v>2</v>
-      </c>
+      <c r="L116" s="25"/>
       <c r="M116" s="25"/>
       <c r="N116" s="18" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="O116" s="18"/>
-      <c r="P116" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="P116" s="18"/>
       <c r="Q116" s="18"/>
       <c r="R116" s="13"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-    </row>
-    <row r="117" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="S116" s="18">
+        <v>1</v>
+      </c>
+      <c r="T116" s="18">
+        <v>1</v>
+      </c>
+      <c r="U116" s="18">
+        <v>0</v>
+      </c>
+      <c r="V116" s="18">
+        <v>0</v>
+      </c>
+      <c r="W116" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -13641,95 +13652,92 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="25" t="s">
-        <v>63</v>
-      </c>
+      <c r="J117" s="25"/>
       <c r="K117" s="25"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
-      <c r="N117" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="N117" s="18"/>
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
       <c r="Q117" s="18"/>
       <c r="R117" s="13"/>
-      <c r="S117" s="18">
-        <v>1</v>
-      </c>
-      <c r="T117" s="18">
-        <v>1</v>
-      </c>
-      <c r="U117" s="18">
-        <v>0</v>
-      </c>
-      <c r="V117" s="18">
-        <v>0</v>
-      </c>
-      <c r="W117" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="13"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J118" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K118" s="26"/>
+      <c r="L118" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M118" s="26"/>
+      <c r="N118" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q118" s="17"/>
+      <c r="S118" s="17">
+        <v>7</v>
+      </c>
+      <c r="T118" s="17">
+        <v>4</v>
+      </c>
+      <c r="U118" s="17">
+        <v>0</v>
+      </c>
+      <c r="V118" s="17">
+        <v>0</v>
+      </c>
+      <c r="W118" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F119" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J119" s="25" t="s">
-        <v>29</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J119" s="25"/>
       <c r="K119" s="26"/>
-      <c r="L119" s="26" t="s">
-        <v>67</v>
+      <c r="L119" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="M119" s="26"/>
-      <c r="N119" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="N119" s="18"/>
       <c r="O119" s="17"/>
       <c r="P119" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q119" s="17"/>
       <c r="S119" s="17">
         <v>7</v>
       </c>
       <c r="T119" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U119" s="17">
         <v>0</v>
@@ -13741,71 +13749,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="F120" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J120" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="J120" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
+      <c r="L120" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="M120" s="26"/>
-      <c r="N120" s="18"/>
+      <c r="N120" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
+      <c r="P120" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="Q120" s="17"/>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="S120" s="17">
+        <v>7</v>
+      </c>
+      <c r="T120" s="17">
+        <v>5</v>
+      </c>
+      <c r="U120" s="17">
+        <v>0</v>
+      </c>
+      <c r="V120" s="17">
+        <v>0</v>
+      </c>
+      <c r="W120" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="F121" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J121" s="25" t="s">
-        <v>29</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J121" s="25"/>
       <c r="K121" s="26"/>
-      <c r="L121" s="26" t="s">
-        <v>70</v>
+      <c r="L121" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="M121" s="26"/>
-      <c r="N121" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="N121" s="18"/>
       <c r="O121" s="17"/>
       <c r="P121" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q121" s="17"/>
       <c r="S121" s="17">
         <v>7</v>
       </c>
       <c r="T121" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U121" s="17">
         <v>0</v>
       </c>
       <c r="V121" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W121" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A122" s="7"/>
-      <c r="F122" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>68</v>
-      </c>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J122" s="25"/>
       <c r="K122" s="26"/>
       <c r="L122" s="26"/>
@@ -13815,7 +13835,7 @@
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J123" s="25"/>
       <c r="K123" s="26"/>
       <c r="L123" s="26"/>
@@ -13825,53 +13845,80 @@
       <c r="P123" s="17"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="J124" s="25"/>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="K124" s="26"/>
       <c r="L124" s="26"/>
-      <c r="M124" s="26"/>
-      <c r="N124" s="18"/>
+      <c r="M124" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N124" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="O124" s="17"/>
       <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A125" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q124" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S124" s="17">
+        <v>15</v>
+      </c>
+      <c r="T124" s="17">
+        <v>1</v>
+      </c>
+      <c r="U124" s="17">
+        <v>0</v>
+      </c>
+      <c r="V124" s="17">
+        <v>0</v>
+      </c>
+      <c r="W124" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
       <c r="E125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>58</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F125" s="7"/>
       <c r="I125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J125" s="27" t="s">
-        <v>54</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J125" s="28"/>
       <c r="K125" s="26"/>
       <c r="L125" s="26"/>
       <c r="M125" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="N125" s="21" t="s">
-        <v>54</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N125" s="20"/>
       <c r="O125" s="17"/>
       <c r="P125" s="17"/>
       <c r="Q125" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S125" s="17">
         <v>15</v>
       </c>
       <c r="T125" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U125" s="17">
         <v>0</v>
@@ -13883,75 +13930,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B126" s="7"/>
-      <c r="E126" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="I126" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J126" s="28"/>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+      <c r="J126" s="25"/>
       <c r="K126" s="26"/>
       <c r="L126" s="26"/>
-      <c r="M126" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N126" s="20"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="18"/>
       <c r="O126" s="17"/>
       <c r="P126" s="17"/>
-      <c r="Q126" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S126" s="17">
-        <v>15</v>
-      </c>
-      <c r="T126" s="17">
-        <v>0</v>
-      </c>
-      <c r="U126" s="17">
-        <v>0</v>
-      </c>
-      <c r="V126" s="17">
-        <v>0</v>
-      </c>
-      <c r="W126" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A127" s="7"/>
+      <c r="Q126" s="17"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="J127" s="25"/>
       <c r="K127" s="26"/>
       <c r="L127" s="26"/>
       <c r="M127" s="26"/>
-      <c r="N127" s="18"/>
+      <c r="N127" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="O127" s="17"/>
       <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A128" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q127" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S127" s="17">
+        <v>16</v>
+      </c>
+      <c r="T127" s="17">
+        <v>1</v>
+      </c>
+      <c r="U127" s="17">
+        <v>0</v>
+      </c>
+      <c r="V127" s="17">
+        <v>0</v>
+      </c>
+      <c r="W127" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B128" s="7"/>
       <c r="J128" s="25"/>
       <c r="K128" s="26"/>
       <c r="L128" s="26"/>
       <c r="M128" s="26"/>
-      <c r="N128" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="N128" s="18"/>
       <c r="O128" s="17"/>
       <c r="P128" s="17"/>
       <c r="Q128" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S128" s="17">
         <v>16</v>
       </c>
       <c r="T128" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128" s="17">
         <v>0</v>
@@ -13963,8 +14001,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B129" s="7"/>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
       <c r="J129" s="25"/>
       <c r="K129" s="26"/>
       <c r="L129" s="26"/>
@@ -13973,13 +14011,13 @@
       <c r="O129" s="17"/>
       <c r="P129" s="17"/>
       <c r="Q129" s="17" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="S129" s="17">
         <v>16</v>
       </c>
       <c r="T129" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U129" s="17">
         <v>0</v>
@@ -13991,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="J130" s="25"/>
       <c r="K130" s="26"/>
@@ -14000,73 +14038,82 @@
       <c r="N130" s="18"/>
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
-      <c r="Q130" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="S130" s="17">
-        <v>16</v>
-      </c>
-      <c r="T130" s="17">
-        <v>2</v>
-      </c>
-      <c r="U130" s="17">
-        <v>0</v>
-      </c>
-      <c r="V130" s="17">
-        <v>0</v>
-      </c>
-      <c r="W130" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A131" s="7"/>
-      <c r="J131" s="25"/>
+      <c r="Q130" s="17"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I131" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J131" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="K131" s="26"/>
       <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="18"/>
+      <c r="M131" s="26">
+        <v>-2</v>
+      </c>
+      <c r="N131" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="O131" s="17"/>
       <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A132" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q131" s="17">
+        <v>-2</v>
+      </c>
+      <c r="S131" s="17">
+        <v>17</v>
+      </c>
+      <c r="T131" s="17">
+        <v>6</v>
+      </c>
+      <c r="U131" s="17">
+        <v>0</v>
+      </c>
+      <c r="V131" s="17">
+        <v>0</v>
+      </c>
+      <c r="W131" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
       <c r="E132" s="1">
-        <v>-2</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>-1.5</v>
+      </c>
+      <c r="F132" s="7"/>
       <c r="I132" s="1">
-        <v>-2</v>
-      </c>
-      <c r="J132" s="27" t="s">
-        <v>36</v>
-      </c>
+        <v>-1.5</v>
+      </c>
+      <c r="J132" s="28"/>
       <c r="K132" s="26"/>
       <c r="L132" s="26"/>
       <c r="M132" s="26">
-        <v>-2</v>
-      </c>
-      <c r="N132" s="21" t="s">
-        <v>36</v>
-      </c>
+        <v>-1.5</v>
+      </c>
+      <c r="N132" s="20"/>
       <c r="O132" s="17"/>
       <c r="P132" s="17"/>
       <c r="Q132" s="17">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="S132" s="17">
         <v>17</v>
       </c>
       <c r="T132" s="17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U132" s="17">
         <v>0</v>
@@ -14078,32 +14125,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="E133" s="1">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="F133" s="7"/>
       <c r="I133" s="1">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="J133" s="28"/>
       <c r="K133" s="26"/>
       <c r="L133" s="26"/>
       <c r="M133" s="26">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="N133" s="20"/>
       <c r="O133" s="17"/>
       <c r="P133" s="17"/>
       <c r="Q133" s="17">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="S133" s="17">
         <v>17</v>
       </c>
       <c r="T133" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U133" s="17">
         <v>0</v>
@@ -14115,32 +14162,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="E134" s="1">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="F134" s="7"/>
       <c r="I134" s="1">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="J134" s="28"/>
       <c r="K134" s="26"/>
       <c r="L134" s="26"/>
       <c r="M134" s="26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="N134" s="20"/>
       <c r="O134" s="17"/>
       <c r="P134" s="17"/>
       <c r="Q134" s="17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S134" s="17">
         <v>17</v>
       </c>
       <c r="T134" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U134" s="17">
         <v>0</v>
@@ -14152,32 +14199,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="E135" s="1">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F135" s="7"/>
       <c r="I135" s="1">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J135" s="28"/>
       <c r="K135" s="26"/>
       <c r="L135" s="26"/>
       <c r="M135" s="26">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="N135" s="20"/>
       <c r="O135" s="17"/>
       <c r="P135" s="17"/>
       <c r="Q135" s="17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S135" s="17">
         <v>17</v>
       </c>
       <c r="T135" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U135" s="17">
         <v>0</v>
@@ -14189,32 +14236,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
       <c r="E136" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F136" s="7"/>
       <c r="I136" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J136" s="28"/>
       <c r="K136" s="26"/>
       <c r="L136" s="26"/>
       <c r="M136" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N136" s="20"/>
       <c r="O136" s="17"/>
       <c r="P136" s="17"/>
       <c r="Q136" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S136" s="17">
         <v>17</v>
       </c>
       <c r="T136" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U136" s="17">
         <v>0</v>
@@ -14226,32 +14273,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
       <c r="E137" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F137" s="7"/>
       <c r="I137" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J137" s="28"/>
       <c r="K137" s="26"/>
       <c r="L137" s="26"/>
       <c r="M137" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N137" s="20"/>
       <c r="O137" s="17"/>
       <c r="P137" s="17"/>
       <c r="Q137" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S137" s="17">
         <v>17</v>
       </c>
       <c r="T137" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U137" s="17">
         <v>0</v>
@@ -14263,32 +14310,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="E138" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F138" s="7"/>
       <c r="I138" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J138" s="28"/>
       <c r="K138" s="26"/>
       <c r="L138" s="26"/>
       <c r="M138" s="26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N138" s="20"/>
       <c r="O138" s="17"/>
       <c r="P138" s="17"/>
       <c r="Q138" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S138" s="17">
         <v>17</v>
       </c>
       <c r="T138" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U138" s="17">
         <v>0</v>
@@ -14300,32 +14347,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="E139" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F139" s="7"/>
       <c r="I139" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J139" s="28"/>
       <c r="K139" s="26"/>
       <c r="L139" s="26"/>
       <c r="M139" s="26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N139" s="20"/>
       <c r="O139" s="17"/>
       <c r="P139" s="17"/>
       <c r="Q139" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S139" s="17">
         <v>17</v>
       </c>
       <c r="T139" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U139" s="17">
         <v>0</v>
@@ -14337,75 +14384,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B140" s="7"/>
-      <c r="E140" s="1">
-        <v>2</v>
-      </c>
-      <c r="F140" s="7"/>
-      <c r="I140" s="1">
-        <v>2</v>
-      </c>
-      <c r="J140" s="28"/>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="J140" s="25"/>
       <c r="K140" s="26"/>
       <c r="L140" s="26"/>
-      <c r="M140" s="26">
-        <v>2</v>
-      </c>
-      <c r="N140" s="20"/>
+      <c r="M140" s="26"/>
+      <c r="N140" s="18"/>
       <c r="O140" s="17"/>
       <c r="P140" s="17"/>
-      <c r="Q140" s="17">
-        <v>2</v>
-      </c>
-      <c r="S140" s="17">
-        <v>17</v>
-      </c>
-      <c r="T140" s="17">
-        <v>14</v>
-      </c>
-      <c r="U140" s="17">
-        <v>0</v>
-      </c>
-      <c r="V140" s="17">
-        <v>0</v>
-      </c>
-      <c r="W140" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A141" s="7"/>
-      <c r="J141" s="25"/>
+      <c r="Q140" s="17"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J141" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="K141" s="26"/>
       <c r="L141" s="26"/>
       <c r="M141" s="26"/>
-      <c r="N141" s="18"/>
+      <c r="N141" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="O141" s="17"/>
       <c r="P141" s="17"/>
       <c r="Q141" s="17"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="S141" s="17">
+        <v>1</v>
+      </c>
+      <c r="T141" s="17">
+        <v>4</v>
+      </c>
+      <c r="U141" s="17">
+        <v>0</v>
+      </c>
+      <c r="V141" s="17">
+        <v>0</v>
+      </c>
+      <c r="W141" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J142" s="25" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="E142" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="I142" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J142" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="K142" s="26"/>
       <c r="L142" s="26"/>
-      <c r="M142" s="26"/>
-      <c r="N142" s="18" t="s">
-        <v>62</v>
+      <c r="M142" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N142" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="O142" s="17"/>
       <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="Q142" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="S142" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T142" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U142" s="17">
         <v>0</v>
@@ -14417,39 +14471,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A143" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="7"/>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
       <c r="E143" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F143" s="7"/>
+        <v>39</v>
+      </c>
       <c r="I143" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J143" s="27" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J143" s="25"/>
       <c r="K143" s="26"/>
       <c r="L143" s="26"/>
       <c r="M143" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N143" s="20" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="N143" s="18"/>
       <c r="O143" s="17"/>
       <c r="P143" s="17"/>
       <c r="Q143" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S143" s="17">
         <v>8</v>
       </c>
       <c r="T143" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U143" s="17">
         <v>0</v>
@@ -14461,31 +14507,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="E144" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J144" s="25"/>
       <c r="K144" s="26"/>
       <c r="L144" s="26"/>
       <c r="M144" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N144" s="18"/>
       <c r="O144" s="17"/>
       <c r="P144" s="17"/>
       <c r="Q144" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S144" s="17">
         <v>8</v>
       </c>
       <c r="T144" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U144" s="17">
         <v>0</v>
@@ -14497,31 +14543,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="E145" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J145" s="25"/>
       <c r="K145" s="26"/>
       <c r="L145" s="26"/>
       <c r="M145" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N145" s="18"/>
       <c r="O145" s="17"/>
       <c r="P145" s="17"/>
       <c r="Q145" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S145" s="17">
         <v>8</v>
       </c>
       <c r="T145" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U145" s="17">
         <v>0</v>
@@ -14533,31 +14579,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="E146" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J146" s="25"/>
       <c r="K146" s="26"/>
       <c r="L146" s="26"/>
       <c r="M146" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N146" s="18"/>
       <c r="O146" s="17"/>
       <c r="P146" s="17"/>
       <c r="Q146" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S146" s="17">
         <v>8</v>
       </c>
       <c r="T146" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U146" s="17">
         <v>0</v>
@@ -14569,31 +14615,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="E147" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J147" s="25"/>
       <c r="K147" s="26"/>
       <c r="L147" s="26"/>
       <c r="M147" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N147" s="18"/>
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
       <c r="Q147" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S147" s="17">
         <v>8</v>
       </c>
       <c r="T147" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U147" s="17">
         <v>0</v>
@@ -14605,31 +14651,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="E148" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J148" s="25"/>
       <c r="K148" s="26"/>
       <c r="L148" s="26"/>
       <c r="M148" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N148" s="18"/>
       <c r="O148" s="17"/>
       <c r="P148" s="17"/>
       <c r="Q148" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S148" s="17">
         <v>8</v>
       </c>
       <c r="T148" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U148" s="17">
         <v>0</v>
@@ -14641,31 +14687,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="E149" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J149" s="25"/>
       <c r="K149" s="26"/>
       <c r="L149" s="26"/>
       <c r="M149" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N149" s="18"/>
       <c r="O149" s="17"/>
       <c r="P149" s="17"/>
       <c r="Q149" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S149" s="17">
         <v>8</v>
       </c>
       <c r="T149" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U149" s="17">
         <v>0</v>
@@ -14677,31 +14723,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="E150" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J150" s="25"/>
       <c r="K150" s="26"/>
       <c r="L150" s="26"/>
       <c r="M150" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N150" s="18"/>
       <c r="O150" s="17"/>
       <c r="P150" s="17"/>
       <c r="Q150" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S150" s="17">
         <v>8</v>
       </c>
       <c r="T150" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U150" s="17">
         <v>0</v>
@@ -14713,69 +14759,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="E151" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J151" s="25"/>
-      <c r="K151" s="26"/>
-      <c r="L151" s="26"/>
-      <c r="M151" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="N151" s="18"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
-      <c r="Q151" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S151" s="17">
-        <v>8</v>
-      </c>
-      <c r="T151" s="17">
-        <v>0</v>
-      </c>
-      <c r="U151" s="17">
-        <v>0</v>
-      </c>
-      <c r="V151" s="17">
-        <v>0</v>
-      </c>
-      <c r="W151" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B151" s="6"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A155" s="7"/>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="B159" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/gopro_solo_settings_final.xlsx
+++ b/gopro_solo_settings_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d025370\OneDrive\Dokumente\GoProcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d025370\OneDrive\Dokumente\GoProcode_msOD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{427B3969-9E8D-48F1-8F28-1DC37DA0516C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45D44BB6-3590-4147-89A7-2630636E15F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="1" xr2:uid="{06F9C8CB-1244-4026-9A45-7EA3381D78B6}"/>
   </bookViews>
@@ -8611,8 +8611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01AD22A-93D2-4FF6-BEDA-EEDA6890041B}">
   <dimension ref="A1:W158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q126" sqref="Q126"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9199,13 +9199,13 @@
         <v>5</v>
       </c>
       <c r="T14" s="17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U14" s="17">
         <v>3</v>
       </c>
       <c r="V14" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W14" s="17">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>5</v>
       </c>
       <c r="T15" s="17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U15" s="17">
         <v>3</v>
       </c>
       <c r="V15" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W15" s="17">
         <v>1</v>
@@ -9299,13 +9299,13 @@
         <v>5</v>
       </c>
       <c r="T16" s="17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U16" s="17">
         <v>2</v>
       </c>
       <c r="V16" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W16" s="17">
         <v>0</v>
@@ -9355,13 +9355,13 @@
         <v>5</v>
       </c>
       <c r="T17" s="17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U17" s="17">
         <v>2</v>
       </c>
       <c r="V17" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W17" s="17">
         <v>1</v>
@@ -9815,13 +9815,13 @@
         <v>5</v>
       </c>
       <c r="T26" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U26" s="17">
         <v>6</v>
       </c>
       <c r="V26" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W26" s="17">
         <v>0</v>
@@ -9853,13 +9853,13 @@
         <v>5</v>
       </c>
       <c r="T27" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U27" s="17">
         <v>6</v>
       </c>
       <c r="V27" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W27" s="17">
         <v>1</v>
@@ -9915,13 +9915,13 @@
         <v>5</v>
       </c>
       <c r="T28" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U28" s="17">
         <v>3</v>
       </c>
       <c r="V28" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W28" s="17">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>5</v>
       </c>
       <c r="T29" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U29" s="17">
         <v>3</v>
       </c>
       <c r="V29" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="17">
         <v>1</v>
@@ -10009,13 +10009,13 @@
         <v>5</v>
       </c>
       <c r="T30" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U30" s="17">
         <v>2</v>
       </c>
       <c r="V30" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W30" s="17">
         <v>0</v>
@@ -10047,13 +10047,13 @@
         <v>5</v>
       </c>
       <c r="T31" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U31" s="17">
         <v>2</v>
       </c>
       <c r="V31" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W31" s="17">
         <v>1</v>
@@ -11545,13 +11545,13 @@
         <v>5</v>
       </c>
       <c r="T62" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U62" s="17">
         <v>11</v>
       </c>
       <c r="V62" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W62" s="17">
         <v>0</v>
@@ -11583,13 +11583,13 @@
         <v>5</v>
       </c>
       <c r="T63" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U63" s="17">
         <v>11</v>
       </c>
       <c r="V63" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W63" s="17">
         <v>1</v>
@@ -11639,13 +11639,13 @@
         <v>5</v>
       </c>
       <c r="T64" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U64" s="17">
         <v>6</v>
       </c>
       <c r="V64" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W64" s="17">
         <v>0</v>
@@ -11695,13 +11695,13 @@
         <v>5</v>
       </c>
       <c r="T65" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U65" s="17">
         <v>6</v>
       </c>
       <c r="V65" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W65" s="17">
         <v>1</v>
@@ -11751,13 +11751,13 @@
         <v>5</v>
       </c>
       <c r="T66" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U66" s="17">
         <v>3</v>
       </c>
       <c r="V66" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W66" s="17">
         <v>0</v>
@@ -11807,13 +11807,13 @@
         <v>5</v>
       </c>
       <c r="T67" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U67" s="17">
         <v>3</v>
       </c>
       <c r="V67" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W67" s="17">
         <v>1</v>
@@ -11863,13 +11863,13 @@
         <v>5</v>
       </c>
       <c r="T68" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U68" s="17">
         <v>2</v>
       </c>
       <c r="V68" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W68" s="17">
         <v>0</v>
@@ -11919,13 +11919,13 @@
         <v>5</v>
       </c>
       <c r="T69" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="U69" s="17">
         <v>2</v>
       </c>
       <c r="V69" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W69" s="17">
         <v>1</v>
